--- a/Ciencias_de_dados/Relatório.xlsx
+++ b/Ciencias_de_dados/Relatório.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,17 +466,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19:27</t>
+          <t>16:59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
+          <t xml:space="preserve"> domingo, 30 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -491,17 +491,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5,56</t>
+          <t>5,50</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19:27</t>
+          <t>16:59</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
+          <t xml:space="preserve"> domingo, 30 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -516,17 +516,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0,038</t>
+          <t>0,037</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>19:27</t>
+          <t>16:59</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
+          <t xml:space="preserve"> domingo, 30 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -541,17 +541,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>19:27</t>
+          <t>16:59</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
+          <t xml:space="preserve"> domingo, 30 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>19:16</t>
+          <t>19:27</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>19:16</t>
+          <t>19:27</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>19:16</t>
+          <t>19:27</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>19:16</t>
+          <t>19:27</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>19:16</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>19:16</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>19:16</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>19:16</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -766,17 +766,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -816,17 +816,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0,037</t>
+          <t>0,038</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -841,17 +841,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -966,17 +966,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -991,17 +991,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1021,12 +1021,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1041,17 +1041,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1091,12 +1091,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1291,12 +1291,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1491,12 +1491,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1591,12 +1591,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1696,7 +1696,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1766,17 +1766,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1791,17 +1791,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1816,17 +1816,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0,038</t>
+          <t>0,037</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1841,17 +1841,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1891,12 +1891,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2166,17 +2166,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>5,03</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2191,17 +2191,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2216,17 +2216,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0,037</t>
+          <t>0,038</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2241,17 +2241,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2291,12 +2291,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2466,17 +2466,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2491,17 +2491,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2516,17 +2516,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>0,038</t>
+          <t>0,037</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2541,17 +2541,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2591,12 +2591,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2621,7 +2621,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2671,7 +2671,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2850,6 +2850,106 @@
         </is>
       </c>
       <c r="E97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Dollar</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>5,03</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>5,49</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Iene</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>0,038</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Yuan Chinês</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
         <is>
           <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>

--- a/Ciencias_de_dados/Relatório.xlsx
+++ b/Ciencias_de_dados/Relatório.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,12 +471,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16:59</t>
+          <t>17:33</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> domingo, 30 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 3 de maio de 2023 </t>
         </is>
       </c>
     </row>
@@ -491,17 +491,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5,50</t>
+          <t>5,51</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16:59</t>
+          <t>17:33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> domingo, 30 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 3 de maio de 2023 </t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16:59</t>
+          <t>17:33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> domingo, 30 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 3 de maio de 2023 </t>
         </is>
       </c>
     </row>
@@ -546,12 +546,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16:59</t>
+          <t>17:33</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> domingo, 30 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 3 de maio de 2023 </t>
         </is>
       </c>
     </row>
@@ -566,17 +566,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>19:27</t>
+          <t>16:59</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
+          <t xml:space="preserve"> domingo, 30 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -591,17 +591,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5,56</t>
+          <t>5,50</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>19:27</t>
+          <t>16:59</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
+          <t xml:space="preserve"> domingo, 30 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -616,17 +616,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0,038</t>
+          <t>0,037</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>19:27</t>
+          <t>16:59</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
+          <t xml:space="preserve"> domingo, 30 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -641,17 +641,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>19:27</t>
+          <t>16:59</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
+          <t xml:space="preserve"> domingo, 30 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>19:16</t>
+          <t>19:27</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>19:16</t>
+          <t>19:27</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>19:16</t>
+          <t>19:27</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>19:16</t>
+          <t>19:27</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>19:16</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>19:16</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>19:16</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>19:16</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -866,17 +866,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -891,17 +891,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -916,17 +916,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0,037</t>
+          <t>0,038</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -941,17 +941,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1066,17 +1066,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1091,17 +1091,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1141,17 +1141,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1191,12 +1191,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1391,12 +1391,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1591,12 +1591,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1691,12 +1691,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1866,17 +1866,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1891,17 +1891,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1916,17 +1916,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0,038</t>
+          <t>0,037</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1941,17 +1941,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1991,12 +1991,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2266,17 +2266,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>5,03</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2291,17 +2291,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2316,17 +2316,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0,037</t>
+          <t>0,038</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2341,17 +2341,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2391,12 +2391,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2471,7 +2471,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2566,17 +2566,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2591,17 +2591,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2616,17 +2616,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>0,038</t>
+          <t>0,037</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2641,17 +2641,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2691,12 +2691,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -2950,6 +2950,106 @@
         </is>
       </c>
       <c r="E101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Dollar</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>5,03</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>5,49</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Iene</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>0,038</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Yuan Chinês</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
         <is>
           <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>

--- a/Ciencias_de_dados/Relatório.xlsx
+++ b/Ciencias_de_dados/Relatório.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,17 +466,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17:33</t>
+          <t>01:14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 3 de maio de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 14 de junho de 2023 </t>
         </is>
       </c>
     </row>
@@ -491,17 +491,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5,51</t>
+          <t>5,24</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17:33</t>
+          <t>01:14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 3 de maio de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 14 de junho de 2023 </t>
         </is>
       </c>
     </row>
@@ -516,17 +516,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0,037</t>
+          <t>0,035</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17:33</t>
+          <t>01:14</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 3 de maio de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 14 de junho de 2023 </t>
         </is>
       </c>
     </row>
@@ -541,17 +541,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17:33</t>
+          <t>01:14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 3 de maio de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 14 de junho de 2023 </t>
         </is>
       </c>
     </row>
@@ -571,12 +571,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>16:59</t>
+          <t>17:33</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> domingo, 30 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 3 de maio de 2023 </t>
         </is>
       </c>
     </row>
@@ -591,17 +591,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5,50</t>
+          <t>5,51</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>16:59</t>
+          <t>17:33</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> domingo, 30 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 3 de maio de 2023 </t>
         </is>
       </c>
     </row>
@@ -621,12 +621,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>16:59</t>
+          <t>17:33</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> domingo, 30 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 3 de maio de 2023 </t>
         </is>
       </c>
     </row>
@@ -646,12 +646,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>16:59</t>
+          <t>17:33</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> domingo, 30 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 3 de maio de 2023 </t>
         </is>
       </c>
     </row>
@@ -666,17 +666,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>19:27</t>
+          <t>16:59</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
+          <t xml:space="preserve"> domingo, 30 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -691,17 +691,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5,56</t>
+          <t>5,50</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>19:27</t>
+          <t>16:59</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
+          <t xml:space="preserve"> domingo, 30 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -716,17 +716,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0,038</t>
+          <t>0,037</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>19:27</t>
+          <t>16:59</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
+          <t xml:space="preserve"> domingo, 30 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -741,17 +741,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>19:27</t>
+          <t>16:59</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
+          <t xml:space="preserve"> domingo, 30 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>19:16</t>
+          <t>19:27</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>19:16</t>
+          <t>19:27</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>19:16</t>
+          <t>19:27</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>19:16</t>
+          <t>19:27</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>19:16</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>19:16</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>19:16</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>19:08</t>
+          <t>19:16</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -966,17 +966,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -991,17 +991,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1016,17 +1016,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0,037</t>
+          <t>0,038</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1041,17 +1041,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>12:31</t>
+          <t>19:08</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 19 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>12:29</t>
+          <t>12:31</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1166,17 +1166,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1191,17 +1191,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1221,12 +1221,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1241,17 +1241,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>18:31</t>
+          <t>12:29</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> sábado, 15 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1291,12 +1291,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>17:50</t>
+          <t>18:31</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>17:48</t>
+          <t>17:50</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1491,12 +1491,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>17:47</t>
+          <t>17:48</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>17:47</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1691,12 +1691,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1791,12 +1791,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1846,7 +1846,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -1966,17 +1966,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -1991,17 +1991,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2016,17 +2016,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0,038</t>
+          <t>0,037</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2041,17 +2041,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2091,12 +2091,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2366,17 +2366,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>5,03</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2391,17 +2391,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>5,45</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2416,17 +2416,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>0,037</t>
+          <t>0,038</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2441,17 +2441,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>17:38</t>
+          <t>21:20</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2491,12 +2491,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2546,7 +2546,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>17:32</t>
+          <t>17:38</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2571,7 +2571,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2596,7 +2596,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2621,7 +2621,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>17:29</t>
+          <t>17:32</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2666,17 +2666,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2691,17 +2691,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2716,17 +2716,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>0,038</t>
+          <t>0,037</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2741,17 +2741,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>22:32</t>
+          <t>17:29</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+          <t xml:space="preserve"> quinta-feira, 13 de abril de 2023 </t>
         </is>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2791,12 +2791,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>21:21</t>
+          <t>22:32</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -2921,7 +2921,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -2946,7 +2946,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>21:20</t>
+          <t>21:21</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3050,6 +3050,106 @@
         </is>
       </c>
       <c r="E105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Dollar</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>5,03</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Euro</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>5,49</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Iene</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>0,038</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Yuan Chinês</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>0,73</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>21:20</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
         <is>
           <t xml:space="preserve"> quarta-feira, 5 de abril de 2023 </t>
         </is>
